--- a/Secondary widget-area/Test Cases - secondary widget-area .xlsx
+++ b/Secondary widget-area/Test Cases - secondary widget-area .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\OTHERS\AcademyBugs - Testing\Secondary widget-area\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\AcademyBugs - Manual Testing\Secondary widget-area\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFA9307-A433-4580-89E4-86B5301351F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE823EE1-8CD0-476B-ABFC-6B2F70FD221A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="207">
   <si>
     <t>Project Name</t>
   </si>
@@ -653,9 +653,6 @@
 2- Navigate to Your Account section in The Right Side Of The Page</t>
   </si>
   <si>
-    <t>To be in Account page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Store Menu Section should not Be Visible When Traniee Be In Account Page 
 </t>
   </si>
@@ -686,12 +683,6 @@
   <si>
     <t xml:space="preserve">Filter by Price Section was Not Visible When Traniee was In Account Page 
 </t>
-  </si>
-  <si>
-    <t>To be in ( Store OR mycart OR product ) page</t>
-  </si>
-  <si>
-    <t>To be in Product page</t>
   </si>
   <si>
     <t>1- EX : Go To https://academybugs.com/store/
@@ -843,6 +834,21 @@
       </rPr>
       <t xml:space="preserve"> Sign In Button overlaps The Footer</t>
     </r>
+  </si>
+  <si>
+    <t>Ensure the current page is on of ( Store OR mycart OR product ) pages</t>
+  </si>
+  <si>
+    <t>Ensure the current page is the Account page</t>
+  </si>
+  <si>
+    <t>Ensure the current page is the Product page</t>
+  </si>
+  <si>
+    <t>Ensure the current page is the  Account page</t>
+  </si>
+  <si>
+    <t>A registered email address must be available</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1181,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1846,8 +1852,8 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1881,7 +1887,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -1975,10 +1981,10 @@
         <v>75</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="11" t="s">
@@ -2001,9 +2007,9 @@
       <c r="C8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="11" t="s">
@@ -2024,9 +2030,9 @@
       <c r="C9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>83</v>
@@ -2051,9 +2057,9 @@
       <c r="C10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>91</v>
@@ -2076,9 +2082,9 @@
       <c r="C11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>95</v>
@@ -2101,9 +2107,9 @@
       <c r="C12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>91</v>
@@ -2128,9 +2134,9 @@
       <c r="C13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12" t="s">
@@ -2151,9 +2157,9 @@
       <c r="C14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12" t="s">
@@ -2176,9 +2182,9 @@
       <c r="C15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="10" t="s">
@@ -2199,9 +2205,9 @@
       <c r="C16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="10" t="s">
@@ -2222,9 +2228,9 @@
       <c r="C17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="10" t="s">
@@ -2245,9 +2251,9 @@
       <c r="C18" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="10" t="s">
@@ -2268,9 +2274,9 @@
       <c r="C19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="10" t="s">
@@ -2291,9 +2297,9 @@
       <c r="C20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="10" t="s">
@@ -2312,20 +2318,20 @@
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>16</v>
@@ -2342,10 +2348,10 @@
         <v>125</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12" t="s">
@@ -2366,9 +2372,9 @@
       <c r="C23" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12" t="s">
@@ -2390,7 +2396,7 @@
         <v>128</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>161</v>
@@ -2412,20 +2418,20 @@
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>174</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>16</v>
@@ -2442,10 +2448,10 @@
         <v>133</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12" t="s">
@@ -2466,9 +2472,9 @@
       <c r="C27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="10" t="s">
@@ -2489,9 +2495,9 @@
       <c r="C28" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12" t="s">
@@ -2512,9 +2518,9 @@
       <c r="C29" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="10" t="s">
@@ -2535,18 +2541,18 @@
         <v>145</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="30"/>
+        <v>199</v>
+      </c>
+      <c r="D30" s="31"/>
       <c r="E30" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>19</v>
@@ -2560,9 +2566,9 @@
       <c r="C31" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>150</v>
@@ -2585,9 +2591,11 @@
       <c r="C32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="31" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>151</v>
@@ -2610,9 +2618,9 @@
       <c r="C33" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>154</v>
@@ -2636,7 +2644,7 @@
         <v>163</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>165</v>
@@ -2686,7 +2694,10 @@
       <c r="I37" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2697,12 +2708,10 @@
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="B15:B21"/>
-    <mergeCell ref="D26:D33"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D7:D20"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="I26:I28 I7:I20 I22:I24">
     <cfRule type="cellIs" dxfId="35" priority="77" operator="equal">
